--- a/examples/smbkc_17/data/VAST vs Design Based.xlsx
+++ b/examples/smbkc_17/data/VAST vs Design Based.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vast DB (2)" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,20 +107,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -318,7 +333,7 @@
             <c:numRef>
               <c:f>VASTDB!$C$2:$C$41</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>6832.819</c:v>
@@ -450,7 +465,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VASTDB!$I$1</c:f>
+              <c:f>VASTDB!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -614,7 +629,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASTDB!$I$2:$I$41</c:f>
+              <c:f>VASTDB!$J$2:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -751,8 +766,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-681981344"/>
-        <c:axId val="-681978784"/>
+        <c:axId val="992002688"/>
+        <c:axId val="1351744448"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -762,7 +777,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VASTDB!$J$1</c:f>
+              <c:f>VASTDB!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -926,7 +941,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASTDB!$J$2:$J$41</c:f>
+              <c:f>VASTDB!$K$2:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1063,11 +1078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-681989728"/>
-        <c:axId val="-681992048"/>
+        <c:axId val="1380598800"/>
+        <c:axId val="1380570688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-681981344"/>
+        <c:axId val="992002688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,12 +1125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681978784"/>
+        <c:crossAx val="1351744448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-681978784"/>
+        <c:axId val="1351744448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,12 +1180,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681981344"/>
+        <c:crossAx val="992002688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-681992048"/>
+        <c:axId val="1380570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,12 +1221,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681989728"/>
+        <c:crossAx val="1380598800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-681989728"/>
+        <c:axId val="1380598800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-681992048"/>
+        <c:crossAx val="1380570688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1234,7 +1249,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,7 +1501,7 @@
             <c:numRef>
               <c:f>VASTDB!$C$2:$C$41</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>6832.819</c:v>
@@ -1622,8 +1636,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-779456256"/>
-        <c:axId val="57066032"/>
+        <c:axId val="973056272"/>
+        <c:axId val="973058832"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1931,7 +1945,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VASTDB!$J$1</c:f>
+              <c:f>VASTDB!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2095,7 +2109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASTDB!$J$2:$J$41</c:f>
+              <c:f>VASTDB!$K$2:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2232,11 +2246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-777834784"/>
-        <c:axId val="-777837616"/>
+        <c:axId val="992110896"/>
+        <c:axId val="973061152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-779456256"/>
+        <c:axId val="973056272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,12 +2293,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57066032"/>
+        <c:crossAx val="973058832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57066032"/>
+        <c:axId val="973058832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,12 +2348,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779456256"/>
+        <c:crossAx val="973056272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-777837616"/>
+        <c:axId val="973061152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,12 +2389,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777834784"/>
+        <c:crossAx val="992110896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-777834784"/>
+        <c:axId val="992110896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2403,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-777837616"/>
+        <c:crossAx val="973061152"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2402,7 +2417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,2359 +3903,2488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="240" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1978</v>
       </c>
       <c r="B2">
         <v>1.6234128748602E-3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>6832.8190000000004</v>
       </c>
       <c r="D2" s="1">
         <f>B2*1000000</f>
         <v>1623.4128748602</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I40" si="0">J2*$C$43/$J$43</f>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H40" si="0">RANK(C2,$C$2:$C$41)</f>
+        <v>13</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J40" si="1">K2*$C$43/$K$43</f>
         <v>9381.6943575372698</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.3023881084303201E-3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.23384326427503599</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3.0455468662833601E-4</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1978</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>4</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
       <c r="R2">
-        <f t="shared" ref="R2:R41" si="1">I2</f>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S41" si="2">J2</f>
         <v>9381.6943575372698</v>
       </c>
-      <c r="S2">
-        <f>K2</f>
+      <c r="T2">
+        <f>L2</f>
         <v>0.23384326427503599</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1979</v>
       </c>
       <c r="B3">
         <v>1.5633441255552499E-3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>7989.8810000000003</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D41" si="2">B3*1000000</f>
+        <f t="shared" ref="D3:D41" si="3">B3*1000000</f>
         <v>1563.34412555525</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.46300000000000002</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>10260.430781597688</v>
-      </c>
-      <c r="J3">
-        <v>1.4243762936691001E-3</v>
-      </c>
-      <c r="K3">
-        <v>0.275636893952659</v>
-      </c>
-      <c r="L3">
-        <v>3.92610657406751E-4</v>
-      </c>
-      <c r="N3">
-        <v>1979</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <f t="shared" si="1"/>
         <v>10260.430781597688</v>
       </c>
+      <c r="K3">
+        <v>1.4243762936691001E-3</v>
+      </c>
+      <c r="L3">
+        <v>0.275636893952659</v>
+      </c>
+      <c r="M3">
+        <v>3.92610657406751E-4</v>
+      </c>
+      <c r="O3">
+        <v>1979</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
       <c r="S3">
-        <f t="shared" ref="S3:S41" si="3">K3</f>
+        <f t="shared" si="2"/>
+        <v>10260.430781597688</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T41" si="4">L3</f>
         <v>0.275636893952659</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
       <c r="B4">
         <v>1.35837815891066E-3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>9986.83</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1358.37815891066</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.50700000000000001</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>10224.350704317345</v>
-      </c>
-      <c r="J4">
-        <v>1.41936757543438E-3</v>
-      </c>
-      <c r="K4">
-        <v>0.18716690490426999</v>
-      </c>
-      <c r="L4">
-        <v>2.6565863601553201E-4</v>
-      </c>
-      <c r="N4">
-        <v>1980</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>10224.350704317345</v>
       </c>
+      <c r="K4">
+        <v>1.41936757543438E-3</v>
+      </c>
+      <c r="L4">
+        <v>0.18716690490426999</v>
+      </c>
+      <c r="M4">
+        <v>2.6565863601553201E-4</v>
+      </c>
+      <c r="O4">
+        <v>1980</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>10224.350704317345</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
         <v>0.18716690490426999</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
       <c r="B5">
         <v>1.271201245673E-3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>6551.1319999999996</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1271.2012456729999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.40200000000000002</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>9058.7190195512867</v>
-      </c>
-      <c r="J5">
-        <v>1.25755193881334E-3</v>
-      </c>
-      <c r="K5">
-        <v>0.19233962629259599</v>
-      </c>
-      <c r="L5">
-        <v>2.4187706995488801E-4</v>
-      </c>
-      <c r="N5">
-        <v>1981</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>9058.7190195512867</v>
       </c>
+      <c r="K5">
+        <v>1.25755193881334E-3</v>
+      </c>
+      <c r="L5">
+        <v>0.19233962629259599</v>
+      </c>
+      <c r="M5">
+        <v>2.4187706995488801E-4</v>
+      </c>
+      <c r="O5">
+        <v>1981</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>9058.7190195512867</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
         <v>0.19233962629259599</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
       <c r="B6">
         <v>3.2043338449923801E-3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>16221.933000000001</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3204.3338449923799</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>21428.315844757912</v>
-      </c>
-      <c r="J6">
-        <v>2.9747274507488501E-3</v>
-      </c>
-      <c r="K6">
-        <v>0.196154865875212</v>
-      </c>
-      <c r="L6">
-        <v>5.83507264116951E-4</v>
-      </c>
-      <c r="N6">
-        <v>1982</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>21428.315844757912</v>
       </c>
+      <c r="K6">
+        <v>2.9747274507488501E-3</v>
+      </c>
+      <c r="L6">
+        <v>0.196154865875212</v>
+      </c>
+      <c r="M6">
+        <v>5.83507264116951E-4</v>
+      </c>
+      <c r="O6">
+        <v>1982</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>21428.315844757912</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
         <v>0.196154865875212</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
       <c r="B7">
         <v>1.2701168787390899E-3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>9634.25</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1270.11687873909</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.29799999999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>8922.3202748551084</v>
-      </c>
-      <c r="J7">
-        <v>1.23861675543099E-3</v>
-      </c>
-      <c r="K7">
-        <v>0.15161734027794799</v>
-      </c>
-      <c r="L7">
-        <v>1.8779577808214799E-4</v>
-      </c>
-      <c r="N7">
-        <v>1983</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>8922.3202748551084</v>
       </c>
+      <c r="K7">
+        <v>1.23861675543099E-3</v>
+      </c>
+      <c r="L7">
+        <v>0.15161734027794799</v>
+      </c>
+      <c r="M7">
+        <v>1.8779577808214799E-4</v>
+      </c>
+      <c r="O7">
+        <v>1983</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>8922.3202748551084</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
         <v>0.15161734027794799</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
       <c r="B8">
         <v>7.2361793069966802E-4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>4071.2179999999998</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>723.61793069966802</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>4829.2867089787624</v>
-      </c>
-      <c r="J8">
-        <v>6.7041254407541602E-4</v>
-      </c>
-      <c r="K8">
-        <v>0.162072151397396</v>
-      </c>
-      <c r="L8">
-        <v>1.08655203342104E-4</v>
-      </c>
-      <c r="N8">
-        <v>1984</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>4829.2867089787624</v>
       </c>
+      <c r="K8">
+        <v>6.7041254407541602E-4</v>
+      </c>
+      <c r="L8">
+        <v>0.162072151397396</v>
+      </c>
+      <c r="M8">
+        <v>1.08655203342104E-4</v>
+      </c>
+      <c r="O8">
+        <v>1984</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>4829.2867089787624</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
         <v>0.162072151397396</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
       <c r="B9">
         <v>5.4492376522980498E-4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>3110.5410000000002</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>544.92376522980499</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.21</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>3674.8238586846028</v>
-      </c>
-      <c r="J9">
-        <v>5.1014739041053199E-4</v>
-      </c>
-      <c r="K9">
-        <v>0.18298309018369299</v>
-      </c>
-      <c r="L9" s="2">
-        <v>9.3348345946466001E-5</v>
-      </c>
-      <c r="N9">
-        <v>1985</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>3674.8238586846028</v>
       </c>
+      <c r="K9">
+        <v>5.1014739041053199E-4</v>
+      </c>
+      <c r="L9">
+        <v>0.18298309018369299</v>
+      </c>
+      <c r="M9" s="2">
+        <v>9.3348345946466001E-5</v>
+      </c>
+      <c r="O9">
+        <v>1985</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>3674.8238586846028</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
         <v>0.18298309018369299</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
       <c r="B10">
         <v>2.3435634419235001E-4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>1416.8489999999999</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>234.35634419235001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.38800000000000001</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>1388.3224604360862</v>
-      </c>
-      <c r="J10">
-        <v>1.9273007563777901E-4</v>
-      </c>
-      <c r="K10">
-        <v>0.23822138168802201</v>
-      </c>
-      <c r="L10" s="2">
-        <v>4.59124249112689E-5</v>
-      </c>
-      <c r="N10">
-        <v>1986</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>1388.3224604360862</v>
       </c>
+      <c r="K10">
+        <v>1.9273007563777901E-4</v>
+      </c>
+      <c r="L10">
+        <v>0.23822138168802201</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4.59124249112689E-5</v>
+      </c>
+      <c r="O10">
+        <v>1986</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>1388.3224604360862</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
         <v>0.23822138168802201</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
       <c r="B11">
         <v>4.47389998874328E-4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>2278.9169999999999</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>447.389998874328</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>2916.1002602400054</v>
-      </c>
-      <c r="J11">
-        <v>4.0481965806911098E-4</v>
-      </c>
-      <c r="K11">
-        <v>0.225728613342216</v>
-      </c>
-      <c r="L11" s="2">
-        <v>9.1379380069610394E-5</v>
-      </c>
-      <c r="N11">
-        <v>1987</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>2916.1002602400054</v>
       </c>
+      <c r="K11">
+        <v>4.0481965806911098E-4</v>
+      </c>
+      <c r="L11">
+        <v>0.225728613342216</v>
+      </c>
+      <c r="M11" s="2">
+        <v>9.1379380069610394E-5</v>
+      </c>
+      <c r="O11">
+        <v>1987</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2916.1002602400054</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
         <v>0.225728613342216</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
       <c r="B12">
         <v>5.2552377535004596E-4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>3158.1689999999999</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>525.52377535004598</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.252</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>2992.8941540330397</v>
-      </c>
-      <c r="J12">
-        <v>4.1548036073800102E-4</v>
-      </c>
-      <c r="K12">
-        <v>0.21206351233057899</v>
-      </c>
-      <c r="L12" s="2">
-        <v>8.8108224602476595E-5</v>
-      </c>
-      <c r="N12">
-        <v>1988</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>2992.8941540330397</v>
       </c>
+      <c r="K12">
+        <v>4.1548036073800102E-4</v>
+      </c>
+      <c r="L12">
+        <v>0.21206351233057899</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8.8108224602476595E-5</v>
+      </c>
+      <c r="O12">
+        <v>1988</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2992.8941540330397</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
         <v>0.21206351233057899</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
       <c r="B13">
         <v>1.1556510807336101E-3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>6338.6220000000003</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1155.6510807336101</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>6319.3871718718001</v>
-      </c>
-      <c r="J13">
-        <v>8.7727167306412104E-4</v>
-      </c>
-      <c r="K13">
-        <v>0.184715632335923</v>
-      </c>
-      <c r="L13">
-        <v>1.6204579182043199E-4</v>
-      </c>
-      <c r="N13">
-        <v>1989</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
         <f t="shared" si="1"/>
         <v>6319.3871718718001</v>
       </c>
+      <c r="K13">
+        <v>8.7727167306412104E-4</v>
+      </c>
+      <c r="L13">
+        <v>0.184715632335923</v>
+      </c>
+      <c r="M13">
+        <v>1.6204579182043199E-4</v>
+      </c>
+      <c r="O13">
+        <v>1989</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>6319.3871718718001</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
         <v>0.184715632335923</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
       <c r="B14">
         <v>1.08820469272685E-3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>6730.13</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1088.20469272685</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.27400000000000002</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>7037.2867197869746</v>
-      </c>
-      <c r="J14">
-        <v>9.76932118034923E-4</v>
-      </c>
-      <c r="K14">
-        <v>0.19243566522375899</v>
-      </c>
-      <c r="L14">
-        <v>1.8799658201250599E-4</v>
-      </c>
-      <c r="N14">
-        <v>1990</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>7037.2867197869746</v>
       </c>
+      <c r="K14">
+        <v>9.76932118034923E-4</v>
+      </c>
+      <c r="L14">
+        <v>0.19243566522375899</v>
+      </c>
+      <c r="M14">
+        <v>1.8799658201250599E-4</v>
+      </c>
+      <c r="O14">
+        <v>1990</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>7037.2867197869746</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
         <v>0.19243566522375899</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
       <c r="B15">
         <v>1.08867059647542E-3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>6948.1840000000002</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1088.6705964754199</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>0.248</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>7047.0595245201439</v>
-      </c>
-      <c r="J15">
-        <v>9.7828880097357209E-4</v>
-      </c>
-      <c r="K15">
-        <v>0.16768788945347601</v>
-      </c>
-      <c r="L15">
-        <v>1.6404718431123E-4</v>
-      </c>
-      <c r="N15">
-        <v>1991</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>7047.0595245201439</v>
       </c>
+      <c r="K15">
+        <v>9.7828880097357209E-4</v>
+      </c>
+      <c r="L15">
+        <v>0.16768788945347601</v>
+      </c>
+      <c r="M15">
+        <v>1.6404718431123E-4</v>
+      </c>
+      <c r="O15">
+        <v>1991</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>7047.0595245201439</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
         <v>0.16768788945347601</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
       <c r="B16">
         <v>1.13087925863632E-3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>7093.2719999999999</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1130.8792586363199</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.20100000000000001</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>7650.9647101439314</v>
-      </c>
-      <c r="J16">
-        <v>1.06212428978844E-3</v>
-      </c>
-      <c r="K16">
-        <v>0.157316766933217</v>
-      </c>
-      <c r="L16">
-        <v>1.6708995935075599E-4</v>
-      </c>
-      <c r="N16">
-        <v>1992</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
         <v>7650.9647101439314</v>
       </c>
+      <c r="K16">
+        <v>1.06212428978844E-3</v>
+      </c>
+      <c r="L16">
+        <v>0.157316766933217</v>
+      </c>
+      <c r="M16">
+        <v>1.6708995935075599E-4</v>
+      </c>
+      <c r="O16">
+        <v>1992</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>7650.9647101439314</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
         <v>0.157316766933217</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
       <c r="B17">
         <v>1.5842459155399099E-3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>9548.4590000000007</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1584.2459155399099</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>10632.815393398505</v>
-      </c>
-      <c r="J17">
-        <v>1.4760715708427999E-3</v>
-      </c>
-      <c r="K17">
-        <v>0.15454782708463599</v>
-      </c>
-      <c r="L17">
-        <v>2.28123653895161E-4</v>
-      </c>
-      <c r="N17">
-        <v>1993</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>10632.815393398505</v>
       </c>
+      <c r="K17">
+        <v>1.4760715708427999E-3</v>
+      </c>
+      <c r="L17">
+        <v>0.15454782708463599</v>
+      </c>
+      <c r="M17">
+        <v>2.28123653895161E-4</v>
+      </c>
+      <c r="O17">
+        <v>1993</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
       <c r="S17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>10632.815393398505</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
         <v>0.15454782708463599</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
       <c r="B18">
         <v>1.0939375082009901E-3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>6539.1329999999998</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1093.9375082009901</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>7225.5278255777712</v>
-      </c>
-      <c r="J18">
-        <v>1.0030641756736099E-3</v>
-      </c>
-      <c r="K18">
-        <v>0.16266772262678</v>
-      </c>
-      <c r="L18">
-        <v>1.6316616510533399E-4</v>
-      </c>
-      <c r="N18">
-        <v>1994</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>4</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
         <f t="shared" si="1"/>
         <v>7225.5278255777712</v>
       </c>
+      <c r="K18">
+        <v>1.0030641756736099E-3</v>
+      </c>
+      <c r="L18">
+        <v>0.16266772262678</v>
+      </c>
+      <c r="M18">
+        <v>1.6316616510533399E-4</v>
+      </c>
+      <c r="O18">
+        <v>1994</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
       <c r="S18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>7225.5278255777712</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
         <v>0.16266772262678</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
       <c r="B19">
         <v>8.7162534121578295E-4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>5703.5910000000003</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>871.62534121578301</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>6108.1483912884223</v>
-      </c>
-      <c r="J19">
-        <v>8.4794702600289097E-4</v>
-      </c>
-      <c r="K19">
-        <v>0.14063948661748499</v>
-      </c>
-      <c r="L19">
-        <v>1.1925483441587E-4</v>
-      </c>
-      <c r="N19">
-        <v>1995</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>4</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
         <f t="shared" si="1"/>
         <v>6108.1483912884223</v>
       </c>
+      <c r="K19">
+        <v>8.4794702600289097E-4</v>
+      </c>
+      <c r="L19">
+        <v>0.14063948661748499</v>
+      </c>
+      <c r="M19">
+        <v>1.1925483441587E-4</v>
+      </c>
+      <c r="O19">
+        <v>1995</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
       <c r="S19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>6108.1483912884223</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
         <v>0.14063948661748499</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
       <c r="B20">
         <v>1.36007805422712E-3</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>9410.4030000000002</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1360.07805422712</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.24099999999999999</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>9443.7946768688707</v>
-      </c>
-      <c r="J20">
-        <v>1.3110090157360699E-3</v>
-      </c>
-      <c r="K20">
-        <v>0.162402145903913</v>
-      </c>
-      <c r="L20">
-        <v>2.1291067745491399E-4</v>
-      </c>
-      <c r="N20">
-        <v>1996</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>4</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
         <f t="shared" si="1"/>
         <v>9443.7946768688707</v>
       </c>
+      <c r="K20">
+        <v>1.3110090157360699E-3</v>
+      </c>
+      <c r="L20">
+        <v>0.162402145903913</v>
+      </c>
+      <c r="M20">
+        <v>2.1291067745491399E-4</v>
+      </c>
+      <c r="O20">
+        <v>1996</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
       <c r="S20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>9443.7946768688707</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
         <v>0.162402145903913</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
       <c r="B21">
         <v>1.39702598379646E-3</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>10924.107</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1397.02598379646</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>9061.3177780824517</v>
-      </c>
-      <c r="J21">
-        <v>1.2579127043721701E-3</v>
-      </c>
-      <c r="K21">
-        <v>0.16399234954804101</v>
-      </c>
-      <c r="L21">
-        <v>2.0628805991632399E-4</v>
-      </c>
-      <c r="N21">
-        <v>1997</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
         <v>4</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
         <f t="shared" si="1"/>
         <v>9061.3177780824517</v>
       </c>
+      <c r="K21">
+        <v>1.2579127043721701E-3</v>
+      </c>
+      <c r="L21">
+        <v>0.16399234954804101</v>
+      </c>
+      <c r="M21">
+        <v>2.0628805991632399E-4</v>
+      </c>
+      <c r="O21">
+        <v>1997</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
       <c r="S21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>9061.3177780824517</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
         <v>0.16399234954804101</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
       <c r="B22">
         <v>1.0337734210203E-3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>7976.8389999999999</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1033.7734210203</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>6856.4245786550864</v>
-      </c>
-      <c r="J22">
-        <v>9.5182442502143502E-4</v>
-      </c>
-      <c r="K22">
-        <v>0.16461927684191399</v>
-      </c>
-      <c r="L22">
-        <v>1.56688648527499E-4</v>
-      </c>
-      <c r="N22">
-        <v>1998</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>4</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
         <f t="shared" si="1"/>
         <v>6856.4245786550864</v>
       </c>
+      <c r="K22">
+        <v>9.5182442502143502E-4</v>
+      </c>
+      <c r="L22">
+        <v>0.16461927684191399</v>
+      </c>
+      <c r="M22">
+        <v>1.56688648527499E-4</v>
+      </c>
+      <c r="O22">
+        <v>1998</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>6856.4245786550864</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
         <v>0.16461927684191399</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
       <c r="B23">
         <v>3.5734873947139201E-4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>1594.546</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>357.34873947139198</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.182</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>2295.7983038878692</v>
-      </c>
-      <c r="J23">
-        <v>3.18707932318843E-4</v>
-      </c>
-      <c r="K23">
-        <v>0.19606998127154401</v>
-      </c>
-      <c r="L23" s="2">
-        <v>6.2489058320848101E-5</v>
-      </c>
-      <c r="N23">
-        <v>1999</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
+        <v>37</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
         <f t="shared" si="1"/>
         <v>2295.7983038878692</v>
       </c>
+      <c r="K23">
+        <v>3.18707932318843E-4</v>
+      </c>
+      <c r="L23">
+        <v>0.19606998127154401</v>
+      </c>
+      <c r="M23" s="2">
+        <v>6.2489058320848101E-5</v>
+      </c>
+      <c r="O23">
+        <v>1999</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
       <c r="S23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2295.7983038878692</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
         <v>0.19606998127154401</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
       <c r="B24">
         <v>3.1672591407308698E-4</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>2096.7950000000001</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>316.72591407308698</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.31</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>2091.4215993343205</v>
-      </c>
-      <c r="J24">
-        <v>2.9033589422991599E-4</v>
-      </c>
-      <c r="K24">
-        <v>0.21254163023158201</v>
-      </c>
-      <c r="L24" s="2">
-        <v>6.1708464274370494E-5</v>
-      </c>
-      <c r="N24">
-        <v>2000</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
+        <f>RANK(C24,$C$24:$C$41)</f>
+        <v>13</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>2091.4215993343205</v>
       </c>
+      <c r="K24">
+        <v>2.9033589422991599E-4</v>
+      </c>
+      <c r="L24">
+        <v>0.21254163023158201</v>
+      </c>
+      <c r="M24" s="2">
+        <v>6.1708464274370494E-5</v>
+      </c>
+      <c r="O24">
+        <v>2000</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
       <c r="S24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2091.4215993343205</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="4"/>
         <v>0.21254163023158201</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
       <c r="B25">
         <v>5.0259155381416004E-4</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>2831.44</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>502.59155381416002</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>0.245</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>3076.7401055780151</v>
-      </c>
-      <c r="J25">
-        <v>4.2712004607314201E-4</v>
-      </c>
-      <c r="K25">
-        <v>0.242078094404895</v>
-      </c>
-      <c r="L25">
-        <v>1.03396406835517E-4</v>
-      </c>
-      <c r="N25">
-        <v>2001</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
+        <f t="shared" ref="I25:I41" si="5">RANK(C25,$C$24:$C$41)</f>
+        <v>11</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="1"/>
         <v>3076.7401055780151</v>
       </c>
+      <c r="K25">
+        <v>4.2712004607314201E-4</v>
+      </c>
+      <c r="L25">
+        <v>0.242078094404895</v>
+      </c>
+      <c r="M25">
+        <v>1.03396406835517E-4</v>
+      </c>
+      <c r="O25">
+        <v>2001</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
       <c r="S25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>3076.7401055780151</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
         <v>0.242078094404895</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
       <c r="B26">
         <v>2.7141536978848299E-4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>1732.5989999999999</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>271.41536978848296</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>0.32</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>1641.6486723769406</v>
-      </c>
-      <c r="J26">
-        <v>2.2789739546422399E-4</v>
-      </c>
-      <c r="K26">
-        <v>0.25020025190817002</v>
-      </c>
-      <c r="L26" s="2">
-        <v>5.70199857543646E-5</v>
-      </c>
-      <c r="N26">
-        <v>2002</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>4</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
         <v>1641.6486723769406</v>
       </c>
+      <c r="K26">
+        <v>2.2789739546422399E-4</v>
+      </c>
+      <c r="L26">
+        <v>0.25020025190817002</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5.70199857543646E-5</v>
+      </c>
+      <c r="O26">
+        <v>2002</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
       <c r="S26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>1641.6486723769406</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="4"/>
         <v>0.25020025190817002</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
       <c r="B27">
         <v>2.8030082203028698E-4</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>1566.675</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280.30082203028695</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.33600000000000002</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
-        <v>1624.7396200361484</v>
-      </c>
-      <c r="J27">
-        <v>2.2555004243243599E-4</v>
-      </c>
-      <c r="K27">
-        <v>0.23434967293501599</v>
-      </c>
-      <c r="L27" s="2">
-        <v>5.2857578674520302E-5</v>
-      </c>
-      <c r="N27">
-        <v>2003</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="1"/>
         <v>1624.7396200361484</v>
       </c>
+      <c r="K27">
+        <v>2.2555004243243599E-4</v>
+      </c>
+      <c r="L27">
+        <v>0.23434967293501599</v>
+      </c>
+      <c r="M27" s="2">
+        <v>5.2857578674520302E-5</v>
+      </c>
+      <c r="O27">
+        <v>2003</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
       <c r="S27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>1624.7396200361484</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
         <v>0.23434967293501599</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
       <c r="B28">
         <v>2.5027372958114303E-4</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>1523.8689999999999</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250.27372958114302</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
-        <v>1443.7134472285079</v>
-      </c>
-      <c r="J28">
-        <v>2.00419578169346E-4</v>
-      </c>
-      <c r="K28">
-        <v>0.215716376266221</v>
-      </c>
-      <c r="L28" s="2">
-        <v>4.3233785135495901E-5</v>
-      </c>
-      <c r="N28">
-        <v>2004</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>4</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="1"/>
         <v>1443.7134472285079</v>
       </c>
+      <c r="K28">
+        <v>2.00419578169346E-4</v>
+      </c>
+      <c r="L28">
+        <v>0.215716376266221</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4.3233785135495901E-5</v>
+      </c>
+      <c r="O28">
+        <v>2004</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
       <c r="S28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>1443.7134472285079</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="4"/>
         <v>0.215716376266221</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
       <c r="B29">
         <v>3.3297487169681801E-4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>1642.0170000000001</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>332.97487169681801</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.371</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>1839.6737919839484</v>
-      </c>
-      <c r="J29">
-        <v>2.5538769211191399E-4</v>
-      </c>
-      <c r="K29">
-        <v>0.2999850417596</v>
-      </c>
-      <c r="L29" s="2">
-        <v>7.6612487483080301E-5</v>
-      </c>
-      <c r="N29">
-        <v>2005</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>4</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="1"/>
         <v>1839.6737919839484</v>
       </c>
+      <c r="K29">
+        <v>2.5538769211191399E-4</v>
+      </c>
+      <c r="L29">
+        <v>0.2999850417596</v>
+      </c>
+      <c r="M29" s="2">
+        <v>7.6612487483080301E-5</v>
+      </c>
+      <c r="O29">
+        <v>2005</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
       <c r="S29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>1839.6737919839484</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
         <v>0.2999850417596</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
       <c r="B30">
         <v>5.9735213230423495E-4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>3893.875</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>597.35213230423494</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="I30" s="1">
-        <f t="shared" si="0"/>
-        <v>3858.955553045244</v>
-      </c>
-      <c r="J30">
-        <v>5.3570897022556403E-4</v>
-      </c>
-      <c r="K30">
-        <v>0.17572362119439999</v>
-      </c>
-      <c r="L30" s="2">
-        <v>9.4136720154359101E-5</v>
-      </c>
-      <c r="N30">
-        <v>2006</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="1"/>
         <v>3858.955553045244</v>
       </c>
+      <c r="K30">
+        <v>5.3570897022556403E-4</v>
+      </c>
+      <c r="L30">
+        <v>0.17572362119439999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>9.4136720154359101E-5</v>
+      </c>
+      <c r="O30">
+        <v>2006</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
       <c r="S30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>3858.955553045244</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="4"/>
         <v>0.17572362119439999</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
       <c r="B31">
         <v>8.3685433400707205E-4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>6470.7730000000001</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>836.854334007072</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>0.38500000000000001</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="I31" s="1">
-        <f t="shared" si="0"/>
-        <v>5544.6244170203572</v>
-      </c>
-      <c r="J31">
-        <v>7.6971734861924399E-4</v>
-      </c>
-      <c r="K31">
-        <v>0.15825755645274101</v>
-      </c>
-      <c r="L31">
-        <v>1.21813586751764E-4</v>
-      </c>
-      <c r="N31">
-        <v>2007</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="1"/>
         <v>5544.6244170203572</v>
       </c>
+      <c r="K31">
+        <v>7.6971734861924399E-4</v>
+      </c>
+      <c r="L31">
+        <v>0.15825755645274101</v>
+      </c>
+      <c r="M31">
+        <v>1.21813586751764E-4</v>
+      </c>
+      <c r="O31">
+        <v>2007</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
       <c r="S31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>5544.6244170203572</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
         <v>0.15825755645274101</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
       <c r="B32">
         <v>7.5015513395275E-4</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>4654.473</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750.15513395275002</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="I32" s="1">
-        <f t="shared" si="0"/>
-        <v>4527.8861968801011</v>
-      </c>
-      <c r="J32">
-        <v>6.2857144076589099E-4</v>
-      </c>
-      <c r="K32">
-        <v>0.175875439742255</v>
-      </c>
-      <c r="L32">
-        <v>1.10550278554124E-4</v>
-      </c>
-      <c r="N32">
-        <v>2008</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="1"/>
         <v>4527.8861968801011</v>
       </c>
+      <c r="K32">
+        <v>6.2857144076589099E-4</v>
+      </c>
+      <c r="L32">
+        <v>0.175875439742255</v>
+      </c>
+      <c r="M32">
+        <v>1.10550278554124E-4</v>
+      </c>
+      <c r="O32">
+        <v>2008</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
       <c r="S32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>4527.8861968801011</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="4"/>
         <v>0.175875439742255</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
       <c r="B33">
         <v>9.0572195360453199E-4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>6301.47</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>905.72195360453202</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="I33" s="1">
-        <f t="shared" si="0"/>
-        <v>6421.5203235091085</v>
-      </c>
-      <c r="J33">
-        <v>8.91450029030501E-4</v>
-      </c>
-      <c r="K33">
-        <v>0.14476687419971401</v>
-      </c>
-      <c r="L33">
-        <v>1.2905243420799001E-4</v>
-      </c>
-      <c r="N33">
-        <v>2009</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
+      <c r="J33" s="1">
         <f t="shared" si="1"/>
         <v>6421.5203235091085</v>
       </c>
+      <c r="K33">
+        <v>8.91450029030501E-4</v>
+      </c>
+      <c r="L33">
+        <v>0.14476687419971401</v>
+      </c>
+      <c r="M33">
+        <v>1.2905243420799001E-4</v>
+      </c>
+      <c r="O33">
+        <v>2009</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
       <c r="S33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>6421.5203235091085</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="4"/>
         <v>0.14476687419971401</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
       <c r="B34">
         <v>1.1327153929460701E-3</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>11130.897999999999</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1132.7153929460701</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>0.46600000000000003</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>7653.453990806629</v>
-      </c>
-      <c r="J34">
-        <v>1.06246985738104E-3</v>
-      </c>
-      <c r="K34">
-        <v>0.14359611196559699</v>
-      </c>
-      <c r="L34">
-        <v>1.52566540600559E-4</v>
-      </c>
-      <c r="N34">
-        <v>2010</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="1"/>
         <v>7653.453990806629</v>
       </c>
+      <c r="K34">
+        <v>1.06246985738104E-3</v>
+      </c>
+      <c r="L34">
+        <v>0.14359611196559699</v>
+      </c>
+      <c r="M34">
+        <v>1.52566540600559E-4</v>
+      </c>
+      <c r="O34">
+        <v>2010</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
       <c r="S34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>7653.453990806629</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
         <v>0.14359611196559699</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2011</v>
       </c>
       <c r="B35">
         <v>1.0078581264695E-3</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>10931.232</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1007.8581264695</v>
       </c>
-      <c r="F35" s="1">
+      <c r="E35" s="4">
+        <f>AVERAGE(C35:$C$41)/$C$43</f>
+        <v>0.90743689319898946</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="I35" s="1">
-        <f t="shared" si="0"/>
-        <v>7037.8623286130796</v>
-      </c>
-      <c r="J35">
-        <v>9.7701202535887296E-4</v>
-      </c>
-      <c r="K35">
-        <v>0.17843109848284699</v>
-      </c>
-      <c r="L35">
-        <v>1.7432932891573501E-4</v>
-      </c>
-      <c r="N35">
-        <v>2011</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
         <f t="shared" si="1"/>
         <v>7037.8623286130796</v>
       </c>
+      <c r="K35">
+        <v>9.7701202535887296E-4</v>
+      </c>
+      <c r="L35">
+        <v>0.17843109848284699</v>
+      </c>
+      <c r="M35">
+        <v>1.7432932891573501E-4</v>
+      </c>
+      <c r="O35">
+        <v>2011</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
       <c r="S35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>7037.8623286130796</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
         <v>0.17843109848284699</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2012</v>
       </c>
       <c r="B36">
         <v>8.0699135364260604E-4</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>6200.2190000000001</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>806.99135364260599</v>
       </c>
-      <c r="F36" s="1">
+      <c r="E36" s="4">
+        <f>AVERAGE(C36:$C$41)/$C$43</f>
+        <v>0.74253014437770437</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1">
         <v>0.33900000000000002</v>
       </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="I36" s="1">
-        <f t="shared" si="0"/>
-        <v>5673.1125478204394</v>
-      </c>
-      <c r="J36">
-        <v>7.8755436262237298E-4</v>
-      </c>
-      <c r="K36">
-        <v>0.14670131045507701</v>
-      </c>
-      <c r="L36">
-        <v>1.15535257051315E-4</v>
-      </c>
-      <c r="N36">
-        <v>2012</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
         <f t="shared" si="1"/>
         <v>5673.1125478204394</v>
       </c>
+      <c r="K36">
+        <v>7.8755436262237298E-4</v>
+      </c>
+      <c r="L36">
+        <v>0.14670131045507701</v>
+      </c>
+      <c r="M36">
+        <v>1.15535257051315E-4</v>
+      </c>
+      <c r="O36">
+        <v>2012</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
       <c r="S36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>5673.1125478204394</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
         <v>0.14670131045507701</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
       <c r="B37">
         <v>3.8327226363394197E-4</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>2287.5569999999998</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>383.27226363394198</v>
       </c>
-      <c r="F37" s="1">
+      <c r="E37" s="4">
+        <f>AVERAGE(C37:$C$41)/$C$43</f>
+        <v>0.67585356236120486</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1">
         <v>0.217</v>
       </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="I37" s="1">
-        <f t="shared" si="0"/>
-        <v>2579.2774809669941</v>
-      </c>
-      <c r="J37">
-        <v>3.5806115521709798E-4</v>
-      </c>
-      <c r="K37">
-        <v>0.17024051885170599</v>
-      </c>
-      <c r="L37" s="2">
-        <v>6.0956516844799798E-5</v>
-      </c>
-      <c r="N37">
-        <v>2013</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="1"/>
         <v>2579.2774809669941</v>
       </c>
+      <c r="K37">
+        <v>3.5806115521709798E-4</v>
+      </c>
+      <c r="L37">
+        <v>0.17024051885170599</v>
+      </c>
+      <c r="M37" s="2">
+        <v>6.0956516844799798E-5</v>
+      </c>
+      <c r="O37">
+        <v>2013</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
       <c r="S37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2579.2774809669941</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="4"/>
         <v>0.17024051885170599</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
       <c r="B38">
         <v>7.4638390333976897E-4</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>6029.22</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>746.38390333976895</v>
       </c>
-      <c r="F38" s="1">
+      <c r="E38" s="4">
+        <f>AVERAGE(C38:$C$41)/$C$43</f>
+        <v>0.74557802126531014</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="I38" s="1">
-        <f t="shared" si="0"/>
-        <v>4476.6028654902648</v>
-      </c>
-      <c r="J38">
-        <v>6.2145217228224499E-4</v>
-      </c>
-      <c r="K38">
-        <v>0.19862155219564301</v>
-      </c>
-      <c r="L38">
-        <v>1.2343379507405401E-4</v>
-      </c>
-      <c r="N38">
-        <v>2014</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>4</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J38" s="1">
         <f t="shared" si="1"/>
         <v>4476.6028654902648</v>
       </c>
+      <c r="K38">
+        <v>6.2145217228224499E-4</v>
+      </c>
+      <c r="L38">
+        <v>0.19862155219564301</v>
+      </c>
+      <c r="M38">
+        <v>1.2343379507405401E-4</v>
+      </c>
+      <c r="O38">
+        <v>2014</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
       <c r="S38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>4476.6028654902648</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="4"/>
         <v>0.19862155219564301</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
       <c r="B39">
         <v>3.7889845318833703E-4</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>5877.433</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>378.89845318833704</v>
       </c>
-      <c r="F39" s="1">
+      <c r="E39" s="4">
+        <f>AVERAGE(C39:$C$41)/$C$43</f>
+        <v>0.64535739503791634</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="1">
         <v>0.77</v>
       </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="I39" s="1">
-        <f t="shared" si="0"/>
-        <v>2309.4953829655178</v>
-      </c>
-      <c r="J39">
-        <v>3.2060939193062702E-4</v>
-      </c>
-      <c r="K39">
-        <v>0.23495891971218799</v>
-      </c>
-      <c r="L39" s="2">
-        <v>7.53300363776016E-5</v>
-      </c>
-      <c r="N39">
-        <v>2015</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>4</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="J39" s="1">
         <f t="shared" si="1"/>
         <v>2309.4953829655178</v>
       </c>
+      <c r="K39">
+        <v>3.2060939193062702E-4</v>
+      </c>
+      <c r="L39">
+        <v>0.23495891971218799</v>
+      </c>
+      <c r="M39" s="2">
+        <v>7.53300363776016E-5</v>
+      </c>
+      <c r="O39">
+        <v>2015</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
       <c r="S39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2309.4953829655178</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="4"/>
         <v>0.23495891971218799</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
       <c r="B40">
         <v>4.7701396932946601E-4</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>3485.9090000000001</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>477.01396932946602</v>
       </c>
-      <c r="F40" s="1">
+      <c r="E40" s="4">
+        <f>AVERAGE(C40:$C$41)/$C$43</f>
+        <v>0.45808580762216589</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="I40" s="1">
-        <f t="shared" si="0"/>
-        <v>2771.5163730908603</v>
-      </c>
-      <c r="J40">
-        <v>3.8474819463005802E-4</v>
-      </c>
-      <c r="K40">
-        <v>0.22999805677188501</v>
-      </c>
-      <c r="L40" s="2">
-        <v>8.8491337111404198E-5</v>
-      </c>
-      <c r="N40">
-        <v>2016</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>4</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J40" s="1">
         <f t="shared" si="1"/>
         <v>2771.5163730908603</v>
       </c>
+      <c r="K40">
+        <v>3.8474819463005802E-4</v>
+      </c>
+      <c r="L40">
+        <v>0.22999805677188501</v>
+      </c>
+      <c r="M40" s="2">
+        <v>8.8491337111404198E-5</v>
+      </c>
+      <c r="O40">
+        <v>2016</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
       <c r="S40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2771.5163730908603</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="4"/>
         <v>0.22999805677188501</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
       <c r="B41">
         <v>2.0623020330824099E-4</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>1793.7598659461901</v>
       </c>
       <c r="D41" s="1">
+        <f t="shared" si="3"/>
+        <v>206.23020330824099</v>
+      </c>
+      <c r="E41" s="4">
+        <f>AVERAGE(C41:$C$41)/$C$43</f>
+        <v>0.31126798204035816</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="1">
+        <v>0.59952907062746896</v>
+      </c>
+      <c r="H41" s="1">
+        <f>RANK(C41,$C$2:$C$41)</f>
+        <v>34</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J41" s="1">
+        <f>K41*$C$43/$K$43</f>
+        <v>1182.0106701287323</v>
+      </c>
+      <c r="K41">
+        <v>1.6408940455160201E-4</v>
+      </c>
+      <c r="L41">
+        <v>0.293261028272505</v>
+      </c>
+      <c r="M41" s="2">
+        <v>4.8121027507425803E-5</v>
+      </c>
+      <c r="O41">
+        <v>2017</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="2"/>
-        <v>206.23020330824099</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.59952907062746896</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1">
-        <f>J41*$C$43/$J$43</f>
         <v>1182.0106701287323</v>
       </c>
-      <c r="J41">
-        <v>1.6408940455160201E-4</v>
-      </c>
-      <c r="K41">
+      <c r="T41">
+        <f t="shared" si="4"/>
         <v>0.293261028272505</v>
       </c>
-      <c r="L41" s="2">
-        <v>4.8121027507425803E-5</v>
-      </c>
-      <c r="N41">
-        <v>2017</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="1"/>
-        <v>1182.0106701287323</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="3"/>
-        <v>0.293261028272505</v>
-      </c>
-      <c r="T41">
+      <c r="U41">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C43">
         <f>AVERAGE(C2:C41)</f>
         <v>5762.7509716486547</v>
       </c>
-      <c r="I43">
-        <f>AVERAGE(I2:I41)</f>
-        <v>5762.7509716486529</v>
-      </c>
       <c r="J43">
         <f>AVERAGE(J2:J41)</f>
+        <v>5762.7509716486529</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE(K2:K41)</f>
         <v>7.9999817210956988E-4</v>
       </c>
     </row>

--- a/examples/smbkc_17/data/VAST vs Design Based.xlsx
+++ b/examples/smbkc_17/data/VAST vs Design Based.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vast DB (2)" sheetId="3" r:id="rId1"/>
@@ -1249,6 +1249,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3905,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="240" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5795,6 +5796,14 @@
         <f t="shared" si="3"/>
         <v>905.72195360453202</v>
       </c>
+      <c r="E33" s="4">
+        <f>AVERAGE(C33:$C$41)/$C$43</f>
+        <v>1.0418962542908687</v>
+      </c>
+      <c r="F33" s="4">
+        <f>C33/$C$43</f>
+        <v>1.0934829616968897</v>
+      </c>
       <c r="G33" s="1">
         <v>0.25600000000000001</v>
       </c>
@@ -5857,6 +5866,14 @@
         <f t="shared" si="3"/>
         <v>1132.7153929460701</v>
       </c>
+      <c r="E34" s="4">
+        <f>AVERAGE(C34:$C$41)/$C$43</f>
+        <v>1.0354479158651162</v>
+      </c>
+      <c r="F34" s="4">
+        <f>C34/$C$43</f>
+        <v>1.9315250745280046</v>
+      </c>
       <c r="G34" s="1">
         <v>0.46600000000000003</v>
       </c>
@@ -5923,7 +5940,10 @@
         <f>AVERAGE(C35:$C$41)/$C$43</f>
         <v>0.90743689319898946</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <f>C35/$C$43</f>
+        <v>1.8968773861266999</v>
+      </c>
       <c r="G35" s="1">
         <v>0.55800000000000005</v>
       </c>
@@ -5990,7 +6010,10 @@
         <f>AVERAGE(C36:$C$41)/$C$43</f>
         <v>0.74253014437770437</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4">
+        <f>C36/$C$43</f>
+        <v>1.0759130544602018</v>
+      </c>
       <c r="G36" s="1">
         <v>0.33900000000000002</v>
       </c>
@@ -6057,7 +6080,10 @@
         <f>AVERAGE(C37:$C$41)/$C$43</f>
         <v>0.67585356236120486</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4">
+        <f>C37/$C$43</f>
+        <v>0.39695572674478363</v>
+      </c>
       <c r="G37" s="1">
         <v>0.217</v>
       </c>
@@ -6124,7 +6150,10 @@
         <f>AVERAGE(C38:$C$41)/$C$43</f>
         <v>0.74557802126531014</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <f>C38/$C$43</f>
+        <v>1.046239899947492</v>
+      </c>
       <c r="G38" s="1">
         <v>0.44900000000000001</v>
       </c>
@@ -6191,7 +6220,10 @@
         <f>AVERAGE(C39:$C$41)/$C$43</f>
         <v>0.64535739503791634</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4">
+        <f>C39/$C$43</f>
+        <v>1.019900569869417</v>
+      </c>
       <c r="G39" s="1">
         <v>0.77</v>
       </c>
@@ -6258,7 +6290,10 @@
         <f>AVERAGE(C40:$C$41)/$C$43</f>
         <v>0.45808580762216589</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4">
+        <f>C40/$C$43</f>
+        <v>0.60490363320397356</v>
+      </c>
       <c r="G40" s="1">
         <v>0.39300000000000002</v>
       </c>
@@ -6325,7 +6360,10 @@
         <f>AVERAGE(C41:$C$41)/$C$43</f>
         <v>0.31126798204035816</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4">
+        <f>C41/$C$43</f>
+        <v>0.31126798204035816</v>
+      </c>
       <c r="G41" s="1">
         <v>0.59952907062746896</v>
       </c>
